--- a/READ_THIS_DOCS_BEFORE_START/Sheet 3.xlsx
+++ b/READ_THIS_DOCS_BEFORE_START/Sheet 3.xlsx
@@ -1,14 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pradeepkumar.J\Documents\BackendEngineer_clean\READ_THIS_DOCS_BEFORE_START\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E915C773-30A5-4AD1-AA9A-4615BAA8FBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Clients" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Banks" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Addresses" sheetId="3" r:id="rId6"/>
+    <sheet name="Clients" sheetId="1" r:id="rId1"/>
+    <sheet name="Banks" sheetId="2" r:id="rId2"/>
+    <sheet name="Addresses" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -186,49 +195,50 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -238,7 +248,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -248,31 +258,12 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -281,91 +272,97 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -555,20 +552,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -605,7 +616,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5">
-        <v>584121.0</v>
+        <v>584121</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>11</v>
@@ -617,7 +628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -631,7 +642,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="5">
-        <v>541212.0</v>
+        <v>541212</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>17</v>
@@ -643,7 +654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -657,7 +668,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="5">
-        <v>6787899.0</v>
+        <v>6787899</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>17</v>
@@ -671,23 +682,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D4"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -710,7 +722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -721,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="12">
-        <v>1.1561313E7</v>
+        <v>11561313</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>32</v>
@@ -736,7 +748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -747,7 +759,7 @@
         <v>36</v>
       </c>
       <c r="D3" s="12">
-        <v>895623.0</v>
+        <v>895623</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>37</v>
@@ -762,8 +774,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -772,8 +784,8 @@
       <c r="C4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="14">
-        <v>1.1561313E7</v>
+      <c r="D4" s="13">
+        <v>11561313</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>37</v>
@@ -784,11 +796,11 @@
       <c r="G4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
@@ -799,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="12">
-        <v>1.1561313E7</v>
+        <v>11561313</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>37</v>
@@ -810,26 +822,27 @@
       <c r="G5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="7" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -852,7 +865,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
@@ -870,13 +883,13 @@
         <v>50</v>
       </c>
       <c r="G2" s="12">
-        <v>326560.0</v>
-      </c>
-      <c r="H2" s="15" t="s">
+        <v>326560</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
@@ -894,18 +907,18 @@
         <v>50</v>
       </c>
       <c r="G3" s="12">
-        <v>395002.0</v>
-      </c>
-      <c r="H3" s="15" t="s">
+        <v>395002</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -918,13 +931,13 @@
         <v>50</v>
       </c>
       <c r="G4" s="12">
-        <v>326560.0</v>
-      </c>
-      <c r="H4" s="15" t="s">
+        <v>326560</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>